--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H2">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.3183590123321</v>
+        <v>100.95625</v>
       </c>
       <c r="N2">
-        <v>42.3183590123321</v>
+        <v>302.86875</v>
       </c>
       <c r="O2">
-        <v>0.9104854977552237</v>
+        <v>0.9361599519103526</v>
       </c>
       <c r="P2">
-        <v>0.9104854977552237</v>
+        <v>0.9361599519103525</v>
       </c>
       <c r="Q2">
-        <v>282.5875409972148</v>
+        <v>2875.1500044</v>
       </c>
       <c r="R2">
-        <v>282.5875409972148</v>
+        <v>25876.3500396</v>
       </c>
       <c r="S2">
-        <v>0.1505169807967025</v>
+        <v>0.4162395998137173</v>
       </c>
       <c r="T2">
-        <v>0.1505169807967025</v>
+        <v>0.4162395998137173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H3">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.15689427303088</v>
+        <v>0.3890956666666667</v>
       </c>
       <c r="N3">
-        <v>1.15689427303088</v>
+        <v>1.167287</v>
       </c>
       <c r="O3">
-        <v>0.02489074441009712</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="P3">
-        <v>0.02489074441009712</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="Q3">
-        <v>7.725344636220112</v>
+        <v>11.081120859072</v>
       </c>
       <c r="R3">
-        <v>7.725344636220112</v>
+        <v>99.730087731648</v>
       </c>
       <c r="S3">
-        <v>0.004114815345908374</v>
+        <v>0.001604229798378851</v>
       </c>
       <c r="T3">
-        <v>0.004114815345908374</v>
+        <v>0.001604229798378851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H4">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.00364079550577</v>
+        <v>2.996608333333334</v>
       </c>
       <c r="N4">
-        <v>3.00364079550577</v>
+        <v>8.989825000000002</v>
       </c>
       <c r="O4">
-        <v>0.06462375783467927</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="P4">
-        <v>0.06462375783467927</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="Q4">
-        <v>20.05728686676024</v>
+        <v>85.34091215520002</v>
       </c>
       <c r="R4">
-        <v>20.05728686676024</v>
+        <v>768.0682093968002</v>
       </c>
       <c r="S4">
-        <v>0.01068328154703699</v>
+        <v>0.01235492654952138</v>
       </c>
       <c r="T4">
-        <v>0.01068328154703699</v>
+        <v>0.01235492654952138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0929734193091</v>
+        <v>28.479168</v>
       </c>
       <c r="H5">
-        <v>18.0929734193091</v>
+        <v>85.437504</v>
       </c>
       <c r="I5">
-        <v>0.4479176943908711</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J5">
-        <v>0.4479176943908711</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.3183590123321</v>
+        <v>3.498858666666667</v>
       </c>
       <c r="N5">
-        <v>42.3183590123321</v>
+        <v>10.496576</v>
       </c>
       <c r="O5">
-        <v>0.9104854977552237</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="P5">
-        <v>0.9104854977552237</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="Q5">
-        <v>765.6649447589044</v>
+        <v>99.64458377625601</v>
       </c>
       <c r="R5">
-        <v>765.6649447589044</v>
+        <v>896.8012539863041</v>
       </c>
       <c r="S5">
-        <v>0.4078225649308445</v>
+        <v>0.01442568965485634</v>
       </c>
       <c r="T5">
-        <v>0.4078225649308445</v>
+        <v>0.01442568965485634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H6">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.15689427303088</v>
+        <v>100.95625</v>
       </c>
       <c r="N6">
-        <v>1.15689427303088</v>
+        <v>302.86875</v>
       </c>
       <c r="O6">
-        <v>0.02489074441009712</v>
+        <v>0.9361599519103526</v>
       </c>
       <c r="P6">
-        <v>0.02489074441009712</v>
+        <v>0.9361599519103525</v>
       </c>
       <c r="Q6">
-        <v>20.93165733089864</v>
+        <v>1830.001402185417</v>
       </c>
       <c r="R6">
-        <v>20.93165733089864</v>
+        <v>16470.01261966875</v>
       </c>
       <c r="S6">
-        <v>0.01114900484784317</v>
+        <v>0.2649319340342239</v>
       </c>
       <c r="T6">
-        <v>0.01114900484784317</v>
+        <v>0.2649319340342239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H7">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.00364079550577</v>
+        <v>0.3890956666666667</v>
       </c>
       <c r="N7">
-        <v>3.00364079550577</v>
+        <v>1.167287</v>
       </c>
       <c r="O7">
-        <v>0.06462375783467927</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="P7">
-        <v>0.06462375783467927</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="Q7">
-        <v>54.34479307423834</v>
+        <v>7.053011731163446</v>
       </c>
       <c r="R7">
-        <v>54.34479307423834</v>
+        <v>63.477105580471</v>
       </c>
       <c r="S7">
-        <v>0.02894612461218353</v>
+        <v>0.001021074648615967</v>
       </c>
       <c r="T7">
-        <v>0.02894612461218353</v>
+        <v>0.001021074648615967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.8001021157819</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H8">
-        <v>9.8001021157819</v>
+        <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.2426156852588661</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J8">
-        <v>0.2426156852588661</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.3183590123321</v>
+        <v>2.996608333333334</v>
       </c>
       <c r="N8">
-        <v>42.3183590123321</v>
+        <v>8.989825000000002</v>
       </c>
       <c r="O8">
-        <v>0.9104854977552237</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="P8">
-        <v>0.9104854977552237</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="Q8">
-        <v>414.7242396931739</v>
+        <v>54.31855335158058</v>
       </c>
       <c r="R8">
-        <v>414.7242396931739</v>
+        <v>488.8669801642251</v>
       </c>
       <c r="S8">
-        <v>0.2208980629561434</v>
+        <v>0.007863775063882351</v>
       </c>
       <c r="T8">
-        <v>0.2208980629561434</v>
+        <v>0.007863775063882351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.8001021157819</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H9">
-        <v>9.8001021157819</v>
+        <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.2426156852588661</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J9">
-        <v>0.2426156852588661</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15689427303088</v>
+        <v>3.498858666666667</v>
       </c>
       <c r="N9">
-        <v>1.15689427303088</v>
+        <v>10.496576</v>
       </c>
       <c r="O9">
-        <v>0.02489074441009712</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="P9">
-        <v>0.02489074441009712</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="Q9">
-        <v>11.33768201286589</v>
+        <v>63.42268325188979</v>
       </c>
       <c r="R9">
-        <v>11.33768201286589</v>
+        <v>570.8041492670081</v>
       </c>
       <c r="S9">
-        <v>0.006038885011659004</v>
+        <v>0.009181793038790626</v>
       </c>
       <c r="T9">
-        <v>0.006038885011659004</v>
+        <v>0.009181793038790626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H10">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.00364079550577</v>
+        <v>100.95625</v>
       </c>
       <c r="N10">
-        <v>3.00364079550577</v>
+        <v>302.86875</v>
       </c>
       <c r="O10">
-        <v>0.06462375783467927</v>
+        <v>0.9361599519103526</v>
       </c>
       <c r="P10">
-        <v>0.06462375783467927</v>
+        <v>0.9361599519103525</v>
       </c>
       <c r="Q10">
-        <v>29.43598651508493</v>
+        <v>1162.3442371125</v>
       </c>
       <c r="R10">
-        <v>29.43598651508493</v>
+        <v>10461.0981340125</v>
       </c>
       <c r="S10">
-        <v>0.01567873729106373</v>
+        <v>0.1682742463388278</v>
       </c>
       <c r="T10">
-        <v>0.01567873729106373</v>
+        <v>0.1682742463388278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.82278856667571</v>
+        <v>11.513346</v>
       </c>
       <c r="H11">
-        <v>5.82278856667571</v>
+        <v>34.540038</v>
       </c>
       <c r="I11">
-        <v>0.144151542660615</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J11">
-        <v>0.144151542660615</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>42.3183590123321</v>
+        <v>0.3890956666666667</v>
       </c>
       <c r="N11">
-        <v>42.3183590123321</v>
+        <v>1.167287</v>
       </c>
       <c r="O11">
-        <v>0.9104854977552237</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="P11">
-        <v>0.9104854977552237</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="Q11">
-        <v>246.4108570174854</v>
+        <v>4.479793037434</v>
       </c>
       <c r="R11">
-        <v>246.4108570174854</v>
+        <v>40.318137336906</v>
       </c>
       <c r="S11">
-        <v>0.1312478890715334</v>
+        <v>0.0006485460787423969</v>
       </c>
       <c r="T11">
-        <v>0.1312478890715334</v>
+        <v>0.0006485460787423969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.82278856667571</v>
+        <v>11.513346</v>
       </c>
       <c r="H12">
-        <v>5.82278856667571</v>
+        <v>34.540038</v>
       </c>
       <c r="I12">
-        <v>0.144151542660615</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J12">
-        <v>0.144151542660615</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.15689427303088</v>
+        <v>2.996608333333334</v>
       </c>
       <c r="N12">
-        <v>1.15689427303088</v>
+        <v>8.989825000000002</v>
       </c>
       <c r="O12">
-        <v>0.02489074441009712</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="P12">
-        <v>0.02489074441009712</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="Q12">
-        <v>6.736350745856815</v>
+        <v>34.50098856815001</v>
       </c>
       <c r="R12">
-        <v>6.736350745856815</v>
+        <v>310.5088971133501</v>
       </c>
       <c r="S12">
-        <v>0.00358803920468658</v>
+        <v>0.004994757717965136</v>
       </c>
       <c r="T12">
-        <v>0.00358803920468658</v>
+        <v>0.004994757717965136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.82278856667571</v>
+        <v>11.513346</v>
       </c>
       <c r="H13">
-        <v>5.82278856667571</v>
+        <v>34.540038</v>
       </c>
       <c r="I13">
-        <v>0.144151542660615</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J13">
-        <v>0.144151542660615</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.00364079550577</v>
+        <v>3.498858666666667</v>
       </c>
       <c r="N13">
-        <v>3.00364079550577</v>
+        <v>10.496576</v>
       </c>
       <c r="O13">
-        <v>0.06462375783467927</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="P13">
-        <v>0.06462375783467927</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="Q13">
-        <v>17.48956528247173</v>
+        <v>40.28357043443201</v>
       </c>
       <c r="R13">
-        <v>17.48956528247173</v>
+        <v>362.5521339098881</v>
       </c>
       <c r="S13">
-        <v>0.009315614384395023</v>
+        <v>0.005831910408512692</v>
       </c>
       <c r="T13">
-        <v>0.009315614384395023</v>
+        <v>0.005831910408512692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.932994999999999</v>
+      </c>
+      <c r="H14">
+        <v>17.798985</v>
+      </c>
+      <c r="I14">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="J14">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>100.95625</v>
+      </c>
+      <c r="N14">
+        <v>302.86875</v>
+      </c>
+      <c r="O14">
+        <v>0.9361599519103526</v>
+      </c>
+      <c r="P14">
+        <v>0.9361599519103525</v>
+      </c>
+      <c r="Q14">
+        <v>598.9729264687498</v>
+      </c>
+      <c r="R14">
+        <v>5390.756338218749</v>
+      </c>
+      <c r="S14">
+        <v>0.08671417172358353</v>
+      </c>
+      <c r="T14">
+        <v>0.08671417172358353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.932994999999999</v>
+      </c>
+      <c r="H15">
+        <v>17.798985</v>
+      </c>
+      <c r="I15">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="J15">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3890956666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.167287</v>
+      </c>
+      <c r="O15">
+        <v>0.003608055772626195</v>
+      </c>
+      <c r="P15">
+        <v>0.003608055772626195</v>
+      </c>
+      <c r="Q15">
+        <v>2.308502644855</v>
+      </c>
+      <c r="R15">
+        <v>20.776523803695</v>
+      </c>
+      <c r="S15">
+        <v>0.0003342052468889797</v>
+      </c>
+      <c r="T15">
+        <v>0.0003342052468889797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.932994999999999</v>
+      </c>
+      <c r="H16">
+        <v>17.798985</v>
+      </c>
+      <c r="I16">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="J16">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.996608333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.989825000000002</v>
+      </c>
+      <c r="O16">
+        <v>0.02778733078167519</v>
+      </c>
+      <c r="P16">
+        <v>0.02778733078167519</v>
+      </c>
+      <c r="Q16">
+        <v>17.778862258625</v>
+      </c>
+      <c r="R16">
+        <v>160.009760327625</v>
+      </c>
+      <c r="S16">
+        <v>0.002573871450306328</v>
+      </c>
+      <c r="T16">
+        <v>0.002573871450306328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.932994999999999</v>
+      </c>
+      <c r="H17">
+        <v>17.798985</v>
+      </c>
+      <c r="I17">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="J17">
+        <v>0.09262751685396531</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.498858666666667</v>
+      </c>
+      <c r="N17">
+        <v>10.496576</v>
+      </c>
+      <c r="O17">
+        <v>0.03244466153534613</v>
+      </c>
+      <c r="P17">
+        <v>0.03244466153534613</v>
+      </c>
+      <c r="Q17">
+        <v>20.75871097504</v>
+      </c>
+      <c r="R17">
+        <v>186.82839877536</v>
+      </c>
+      <c r="S17">
+        <v>0.003005268433186473</v>
+      </c>
+      <c r="T17">
+        <v>0.003005268433186473</v>
       </c>
     </row>
   </sheetData>
